--- a/biology/Botanique/Podoaceae/Podoaceae.xlsx
+++ b/biology/Botanique/Podoaceae/Podoaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Podoaceae sont une famille de plantes dicotylédones, qui, quand elle est reconnue, comprend deux à trois genres originaires d'Asie du Sud-Est. Cette famille est plutôt fusionnée dans le famille des Anacardiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Podoon, dérivé du grec, à partir du préfixe πουσ- / pous- ou ποδοσ / podos-, pied, et du suffixe -oon, œuf [3].
-Cette famille a aussi été appelée Podoönaceae pour se conformer au genre type Podoon[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Podoon, dérivé du grec, à partir du préfixe πουσ- / pous- ou ποδοσ / podos-, pied, et du suffixe -oon, œuf .
+Cette famille a aussi été appelée Podoönaceae pour se conformer au genre type Podoon.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est parfois reconnue par des systèmes de taxonomie végétale, comme la classification de Dahlgren et la classification de Reveal (en) .
-Les plantes de cette famille sont désormais classées dans la famille des Anacardiaceae[5],[6],[7],[2].
+Les plantes de cette famille sont désormais classées dans la famille des Anacardiaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Friedrich A. Lohmueller[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Friedrich A. Lohmueller :
 Campnosperma (en) Thwaites, 1854
 Dobinea (en) Buch.-Ham.. ex D.Don, 1825 (Synonyme Podoön Baill., 1887)</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 juin 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 juin 2021) :
 Genre Campnosperma
 Campnosperma auriculatum (Blume) Hook. f.
 Campnosperma brevipetiolata Volkens
@@ -620,7 +640,7 @@
 Genre Dobinea :
 Dobinea delavayi (Baillon) Baillon
 Dobinea vulgaris Buchanan-Hamilton ex D. Don
-Selon Tropicos                                           (6 juin 2021)[1] :
+Selon Tropicos                                           (6 juin 2021) :
 Genre Poddoon
 Podoon delavayi Baill.
 Genre Campnosperma  non mentionné ici.</t>
